--- a/ControlTask2_MQA_Ivan_Savenko/CheckList.xlsx
+++ b/ControlTask2_MQA_Ivan_Savenko/CheckList.xlsx
@@ -55,9 +55,6 @@
     <t>Проверка прохождения авторизации без заполнения полей</t>
   </si>
   <si>
-    <t>Проверка успешной авторизации при заполнении полей валидными данными</t>
-  </si>
-  <si>
     <t>1.5</t>
   </si>
   <si>
@@ -697,6 +694,9 @@
   </si>
   <si>
     <t>Проверка наличия всех платежных систем для оплаты заказа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка успешной авторизации при заполнении полей валидными данными </t>
   </si>
 </sst>
 </file>
@@ -1161,6 +1161,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1201,9 +1204,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1213,6 +1213,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FF00DA63"/>
     </mruColors>
@@ -1230,7 +1296,7 @@
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="171717"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1529,49 +1595,49 @@
   <sheetData>
     <row r="1" spans="1:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="D2" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="3" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="45"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="37"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="3"/>
       <c r="H4" s="12" t="s">
         <v>1</v>
@@ -1585,7 +1651,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>1</v>
@@ -1608,7 +1674,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>1</v>
@@ -1625,7 +1691,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>1</v>
@@ -1642,7 +1708,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>1</v>
@@ -1656,7 +1722,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>12</v>
@@ -1673,10 +1739,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>1</v>
@@ -1690,10 +1756,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>1</v>
@@ -1707,10 +1773,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>1</v>
@@ -1724,10 +1790,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>1</v>
@@ -1741,38 +1807,38 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>1</v>
@@ -1787,10 +1853,10 @@
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>1</v>
@@ -1805,10 +1871,10 @@
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>1</v>
@@ -1823,10 +1889,10 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>1</v>
@@ -1841,10 +1907,10 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>1</v>
@@ -1859,10 +1925,10 @@
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>1</v>
@@ -1878,10 +1944,10 @@
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>1</v>
@@ -1897,10 +1963,10 @@
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>1</v>
@@ -1916,10 +1982,10 @@
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>1</v>
@@ -1935,10 +2001,10 @@
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>1</v>
@@ -1954,10 +2020,10 @@
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>1</v>
@@ -1973,10 +2039,10 @@
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>1</v>
@@ -1992,10 +2058,10 @@
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>1</v>
@@ -2011,10 +2077,10 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>1</v>
@@ -2030,10 +2096,10 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>1</v>
@@ -2049,10 +2115,10 @@
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>1</v>
@@ -2068,10 +2134,10 @@
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>1</v>
@@ -2087,10 +2153,10 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>1</v>
@@ -2106,10 +2172,10 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>1</v>
@@ -2125,10 +2191,10 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>1</v>
@@ -2144,10 +2210,10 @@
     <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>1</v>
@@ -2163,10 +2229,10 @@
     <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>1</v>
@@ -2182,10 +2248,10 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>1</v>
@@ -2198,21 +2264,21 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
+      <c r="B39" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>1</v>
@@ -2227,10 +2293,10 @@
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>1</v>
@@ -2245,10 +2311,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>1</v>
@@ -2263,10 +2329,10 @@
     </row>
     <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>1</v>
@@ -2281,10 +2347,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>1</v>
@@ -2299,10 +2365,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>224</v>
+        <v>95</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>223</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>1</v>
@@ -2317,10 +2383,10 @@
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>1</v>
@@ -2335,10 +2401,10 @@
     </row>
     <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>1</v>
@@ -2353,10 +2419,10 @@
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>1</v>
@@ -2371,10 +2437,10 @@
     </row>
     <row r="49" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>1</v>
@@ -2388,10 +2454,10 @@
     </row>
     <row r="50" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>1</v>
@@ -2405,10 +2471,10 @@
     </row>
     <row r="51" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>1</v>
@@ -2422,10 +2488,10 @@
     </row>
     <row r="52" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>1</v>
@@ -2439,10 +2505,10 @@
     </row>
     <row r="53" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>2</v>
@@ -2456,10 +2522,10 @@
     </row>
     <row r="54" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>1</v>
@@ -2473,10 +2539,10 @@
     </row>
     <row r="55" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>1</v>
@@ -2490,37 +2556,37 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="34"/>
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>1</v>
@@ -2534,10 +2600,10 @@
     </row>
     <row r="59" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>1</v>
@@ -2551,10 +2617,10 @@
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>1</v>
@@ -2568,10 +2634,10 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>1</v>
@@ -2585,10 +2651,10 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>1</v>
@@ -2602,10 +2668,10 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>1</v>
@@ -2619,10 +2685,10 @@
     </row>
     <row r="64" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>1</v>
@@ -2635,22 +2701,22 @@
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="33"/>
+      <c r="B65" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="34"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>1</v>
@@ -2666,10 +2732,10 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>1</v>
@@ -2683,10 +2749,10 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>1</v>
@@ -2700,10 +2766,10 @@
     </row>
     <row r="69" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>1</v>
@@ -2717,10 +2783,10 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>1</v>
@@ -2734,10 +2800,10 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>1</v>
@@ -2751,10 +2817,10 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>1</v>
@@ -2768,10 +2834,10 @@
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>1</v>
@@ -2785,10 +2851,10 @@
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>1</v>
@@ -2802,10 +2868,10 @@
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>1</v>
@@ -2819,10 +2885,10 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>1</v>
@@ -2836,10 +2902,10 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>1</v>
@@ -2853,10 +2919,10 @@
     </row>
     <row r="78" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>1</v>
@@ -2870,10 +2936,10 @@
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>1</v>
@@ -2887,10 +2953,10 @@
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>1</v>
@@ -2904,10 +2970,10 @@
     </row>
     <row r="81" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>1</v>
@@ -2921,10 +2987,10 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>1</v>
@@ -2938,10 +3004,10 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>1</v>
@@ -2955,10 +3021,10 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>1</v>
@@ -2972,10 +3038,10 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>1</v>
@@ -2989,10 +3055,10 @@
     </row>
     <row r="86" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>1</v>
@@ -3006,10 +3072,10 @@
     </row>
     <row r="87" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>1</v>
@@ -3023,10 +3089,10 @@
     </row>
     <row r="88" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>1</v>
@@ -3040,10 +3106,10 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>1</v>
@@ -3057,10 +3123,10 @@
     </row>
     <row r="90" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>1</v>
@@ -3074,10 +3140,10 @@
     </row>
     <row r="91" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>1</v>
@@ -3091,10 +3157,10 @@
     </row>
     <row r="92" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>1</v>
@@ -3108,10 +3174,10 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>1</v>
@@ -3125,10 +3191,10 @@
     </row>
     <row r="94" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>1</v>
@@ -3142,10 +3208,10 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>1</v>
@@ -3159,10 +3225,10 @@
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>1</v>
@@ -3175,22 +3241,22 @@
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="31"/>
+      <c r="B97" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="32"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>1</v>
@@ -3206,10 +3272,10 @@
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>1</v>
@@ -3225,10 +3291,10 @@
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>1</v>
@@ -3242,10 +3308,10 @@
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>1</v>
@@ -3259,10 +3325,10 @@
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>1</v>
@@ -3276,10 +3342,10 @@
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>1</v>
@@ -3292,21 +3358,21 @@
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="33"/>
+      <c r="B104" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="34"/>
       <c r="G104" s="3"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>1</v>
@@ -3320,10 +3386,10 @@
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>1</v>
@@ -3337,10 +3403,10 @@
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>1</v>
@@ -3354,10 +3420,10 @@
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>1</v>
@@ -3371,10 +3437,10 @@
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>1</v>
@@ -3388,37 +3454,37 @@
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="C110" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="C111" s="32"/>
-      <c r="D111" s="32"/>
-      <c r="E111" s="32"/>
-      <c r="F111" s="33"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="33"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="34"/>
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>1</v>
@@ -3432,10 +3498,10 @@
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>1</v>
@@ -3449,10 +3515,10 @@
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>1</v>
@@ -3466,10 +3532,10 @@
     </row>
     <row r="115" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D115" s="27" t="s">
         <v>1</v>
